--- a/data/Map111.xlsx
+++ b/data/Map111.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhLHI81bURdbqdse91TAmk7Z2hKXg=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>自動実行</t>
   </si>
@@ -32,16 +33,28 @@
     <t>食糧庫ドア</t>
   </si>
   <si>
+    <t>Food Storage Door</t>
+  </si>
+  <si>
     <t>シャンデリア</t>
   </si>
   <si>
+    <t xml:space="preserve">Chandelier </t>
+  </si>
+  <si>
     <t>引っかけ場所</t>
   </si>
   <si>
+    <t>A place to use the Hookshot</t>
+  </si>
+  <si>
     <t>&lt;TE:立体起動&gt;</t>
   </si>
   <si>
     <t>メイドの部屋の鍵を開けた！</t>
+  </si>
+  <si>
+    <t>I unlocked the maid's room</t>
   </si>
   <si>
     <t>メイドの部屋のようだ。
@@ -50,6 +63,9 @@
   <si>
     <t>扉が開かない・・・
 魔法的な力で閉じられているようだ。</t>
+  </si>
+  <si>
+    <t>The door won't open. It seems to be locked with a magical power.</t>
   </si>
   <si>
     <t>リリーを倒そう。
@@ -71,6 +87,9 @@
 でもね。</t>
   </si>
   <si>
+    <t>\n &lt;Arco&gt; I'm neutral. I'm neither your enemy or ally.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;戦わないでほしい。
 って思ってる。</t>
   </si>
@@ -84,6 +103,9 @@
 あいつらが悪なら、あたしはどっち付かずの最悪なの。</t>
   </si>
   <si>
+    <t>\n &lt;Arco&gt; If they're evil, then I'm the worst of them all.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;だから、あんたを襲う。今から。
 あたしに勝てないようならリリーには絶対勝てない。
 あたしが勝ったら、諦めて帰って。</t>
@@ -126,6 +148,9 @@
     <t>書庫の鍵を開けた！</t>
   </si>
   <si>
+    <t>I unlocked the Library!</t>
+  </si>
+  <si>
     <t>書庫のようだ。
 鍵がかかっている・・・</t>
   </si>
@@ -134,11 +159,17 @@
 館主の部屋を開けた！</t>
   </si>
   <si>
+    <t>Opened the master's room with an exquisite key!</t>
+  </si>
+  <si>
     <t>館主の部屋のようだ。
 鍵がかかっている・・・</t>
   </si>
   <si>
     <t>バルコニーの鍵を開けた！</t>
+  </si>
+  <si>
+    <t>Opened the Balcony!</t>
   </si>
   <si>
     <t>この向こうはバルコニーのようだ。
@@ -174,6 +205,9 @@
     <t>リリーの日記</t>
   </si>
   <si>
+    <t>Lily's Diary</t>
+  </si>
+  <si>
     <t>リリーの日記
 知識VS直感</t>
   </si>
@@ -181,7 +215,13 @@
     <t>読んでみる</t>
   </si>
   <si>
+    <t>Read</t>
+  </si>
+  <si>
     <t>やめておく</t>
+  </si>
+  <si>
+    <t>Stop Reading</t>
   </si>
   <si>
     <t>報告書</t>
@@ -190,6 +230,9 @@
     <t>バルコニーの鍵を食糧庫内の倉庫で拾いました。
 近くの棚に置いておきます。
 誰が落としたのか知りませんが、鍵の管理には気を付けてください。</t>
+  </si>
+  <si>
+    <t>I found the the key to the Balcony sitting in the warehouse, so I placed it on a nearby shelf. I don't know who dropped it, but they need to be more careful with the keys.</t>
   </si>
   <si>
     <t>EV103</t>
@@ -201,17 +244,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,46 +263,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -282,79 +330,19 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,439 +354,1396 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="63.57"/>
+    <col customWidth="1" min="2" max="3" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="144.43"/>
+    <col customWidth="1" min="5" max="26" width="8.71"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="D28" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="D30" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="D32" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Map111.xlsx
+++ b/data/Map111.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>自動実行</t>
   </si>
   <si>
     <t>木材</t>
+  </si>
+  <si>
+    <t>Wood</t>
   </si>
   <si>
     <t xml:space="preserve"> &lt;enemy:149&gt;</t>
@@ -534,7 +537,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,249 +545,252 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map111.xlsx
+++ b/data/Map111.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>自動実行</t>
   </si>
@@ -63,7 +63,13 @@
     <t>はい</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>いいえ</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>\n&lt;？？？&gt;待って！</t>
@@ -537,7 +543,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,12 +551,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -558,239 +564,245 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map111.xlsx
+++ b/data/Map111.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>自動実行</t>
   </si>
@@ -51,8 +51,16 @@
 鍵がかかっている・・・</t>
   </si>
   <si>
+    <t>This seems to be the Housemaid's room.
+It's locked tightly...</t>
+  </si>
+  <si>
     <t>扉が開かない・・・
 魔法的な力で閉じられているようだ。</t>
+  </si>
+  <si>
+    <t>The door won't open...
+It seems to be closed shut by a magical power.</t>
   </si>
   <si>
     <t>リリーを倒そう。
@@ -139,12 +147,20 @@
 鍵がかかっている・・・</t>
   </si>
   <si>
+    <t>This seems to be the Library.
+It's locked tightly...</t>
+  </si>
+  <si>
     <t>豪華な鍵を使って
 館主の部屋を開けた！</t>
   </si>
   <si>
     <t>館主の部屋のようだ。
 鍵がかかっている・・・</t>
+  </si>
+  <si>
+    <t>This seems to be office of the household owner.
+It's locked tightly...</t>
   </si>
   <si>
     <t>バルコニーの鍵を開けた！</t>
@@ -603,206 +619,218 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map111.xlsx
+++ b/data/Map111.xlsx
@@ -559,7 +559,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,269 +567,395 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data/Map111.xlsx
+++ b/data/Map111.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23175DB-6DC2-4B89-819B-5DBFB0837734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>自動実行</t>
   </si>
@@ -221,19 +227,132 @@
   </si>
   <si>
     <t>シャンデリアはフックショットがあれば渡れそうだ・・・</t>
+  </si>
+  <si>
+    <t>A pile of wood blocks the passage...</t>
+  </si>
+  <si>
+    <t>Unlocked the maid's room!</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Wait!</t>
+  </si>
+  <si>
+    <t>Unlocked the library!</t>
+  </si>
+  <si>
+    <t>Used the luxurious key.
+Unlocked the master's office!</t>
+  </si>
+  <si>
+    <t>This seems to be the master's office.
+It's locked tightly...</t>
+  </si>
+  <si>
+    <t>Unlocked the balcony!</t>
+  </si>
+  <si>
+    <t>There seems to be a balcony on the other side.
+It's locked tightly...
+If you could get outside, you might be able to escape.</t>
+  </si>
+  <si>
+    <t>Unlocked the butler's room!</t>
+  </si>
+  <si>
+    <t>This seems to be the butler's room.
+It's locked tightly...</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Knowledge VS Instinct</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Don't read</t>
+  </si>
+  <si>
+    <t>You could reach the chandelier if you had a hookshot...</t>
+  </si>
+  <si>
+    <t>I found the balcony key in the storeroom inside the pantry.
+I've placed it near the shelf. I don't know who dropped it,
+but please take better care of your keys.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I don't want you to fight.
+Think about this.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I know I’m being selfish.
+Lily and her succubi are bad guys that attack innocent people.
+I don't blame you for wanting to eliminate them.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;But...
+If those guys are bad, then I'm downright evil.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I really do mean what I said, but... I'm also
+attacking because I suddenly became incredibly horny.
+I'm hungry too.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Oh, and something else!
+I found the keys. To the prison cells, I mean.
+You can have them if you win! Ok?</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Alright, let's fuck!
+I'm not gonna lose!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Ahhh... M-my hips...♥
+My power is fading...♥
+Kuuh...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I'm sorry.
+I won't interfere anymore.
+Good luck. You felt so good...</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Thanks for that♥
+Ahh, that was tasty.
+Alright, time to go home.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Are you ok...? Can you stand?
+Guess I took things a little too far♥
+My bad.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I'm a neutral party.
+So I'm not your ally, and I'm not your enemy.
+But...</t>
+  </si>
+  <si>
+    <t>Time to defeat Lily.
+This will be the final battle.
+Make sure you're completely prepared...</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;So I'm going to fight you. Right now.
+If you can't beat me, there's no way you'll defeat Lily.
+If I win, you'll go home right now.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -244,28 +363,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -555,19 +686,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -583,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -591,15 +724,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -607,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -615,7 +751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -623,7 +759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -631,39 +767,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -671,7 +813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -679,175 +821,235 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -855,7 +1057,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -863,7 +1065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -871,7 +1073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -879,7 +1081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -887,7 +1089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -895,39 +1097,51 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -935,15 +1149,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -951,26 +1168,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
       </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>